--- a/Photonics_Labs/8_sem/Lab37/data37.xlsx
+++ b/Photonics_Labs/8_sem/Lab37/data37.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekha\OneDrive\GitHub\Labs\Photonics_Labs\8_sem\Lab37\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b566d95faa460c8a/GitHub/Labs/Photonics_Labs/8_sem/Lab37/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_AD4DF75460589B3ACB7284C327196F105BDEDDA5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF54E1B2-D02D-4840-B5BE-4821C49FAFC1}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_AD4DF75460589B3ACB7284C327196F105BDEDDA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF54E1B2-D02D-4840-B5BE-4821C49FAFC1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="2415" windowWidth="28800" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,7 +90,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -109,7 +108,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -488,7 +487,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2285,15 +2284,15 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.9296875" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="4" width="13.06640625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>97</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>97</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>97</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>97</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>0.20400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>97</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>97</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>97</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>97</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>97</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>97</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>97</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>76.001800000000003</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>76.001499999999993</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>76.001400000000004</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>76.001099999999994</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76.000500000000002</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>75.999600000000001</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>75.998199999999997</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>75.997</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75.995400000000004</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>75.994299999999996</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>75.993700000000004</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>75.993399999999994</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>75.992800000000003</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>75.992500000000007</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>75.992199999999997</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75.991900000000001</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>75.991500000000002</v>
       </c>
